--- a/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -437,10 +437,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.805425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.665425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="10.785425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.800625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.565425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.720625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -437,10 +437,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.525425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.900625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.415425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="7.715425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.175425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.605425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.185425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.515425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -437,10 +437,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.175425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.605425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.185425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.515425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.175425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.145425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="16.195425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.015425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -437,10 +437,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.175425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.145425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.195425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.015425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.175425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.150625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.195425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.330625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -437,10 +437,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.175425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.150625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.195425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.330625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.555425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.575425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.800625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -437,10 +437,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.555425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.575425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.800625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.012909" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.910928" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.030336" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.129147" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -437,9 +437,9 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.805425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.665425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="10.845425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.920625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.705425" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -458,7 +458,7 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>25</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
@@ -472,7 +472,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>50</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
@@ -486,7 +486,7 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
@@ -500,7 +500,7 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>21</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
@@ -514,7 +514,7 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>100</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">

--- a/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Dosage</x:t>
   </x:si>
@@ -437,10 +437,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.845425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.920625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.705425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.853482" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.996339" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Information" displayName="Information" ref="A1:D6" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0">
   <x:autoFilter ref="A1:D6"/>
   <x:tableColumns count="4">
     <x:tableColumn id="1" name="Dosage"/>

--- a/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Information" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Information" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
